--- a/module/SRA/Resultado.xlsx
+++ b/module/SRA/Resultado.xlsx
@@ -504,10 +504,10 @@
         <v>38.24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97666</v>
+        <v>0.9674</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99177</v>
+        <v>0.99135</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +523,10 @@
         <v>32.98</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97686</v>
+        <v>0.96767</v>
       </c>
       <c r="E3" t="n">
-        <v>0.99276</v>
+        <v>0.99251</v>
       </c>
     </row>
     <row r="4">
@@ -542,10 +542,10 @@
         <v>28.91</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97418</v>
+        <v>0.96395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9928</v>
+        <v>0.99263</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +561,10 @@
         <v>38.24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.97666</v>
+        <v>0.9674</v>
       </c>
       <c r="E5" t="n">
-        <v>0.99177</v>
+        <v>0.99135</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         <v>32.98</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97686</v>
+        <v>0.96767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99276</v>
+        <v>0.99251</v>
       </c>
     </row>
     <row r="7">
@@ -599,10 +599,10 @@
         <v>28.91</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97418</v>
+        <v>0.96395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9928</v>
+        <v>0.99263</v>
       </c>
     </row>
   </sheetData>

--- a/module/SRA/Resultado.xlsx
+++ b/module/SRA/Resultado.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,115 +494,704 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Motor MTU estribor</t>
+          <t>Motor1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4274.6</v>
+        <v>12551</v>
       </c>
       <c r="C2" t="n">
-        <v>38.24</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9674</v>
+        <v>0.9761</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99135</v>
+        <v>0.99901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caja de reductora ZF 1</t>
+          <t>Motor2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4310.16</v>
+        <v>12551</v>
       </c>
       <c r="C3" t="n">
-        <v>32.98</v>
+        <v>12.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96767</v>
+        <v>0.9761</v>
       </c>
       <c r="E3" t="n">
-        <v>0.99251</v>
+        <v>0.99901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Water Jets Hamilton 1</t>
+          <t>AcopleFA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3862.94</v>
+        <v>155654.14</v>
       </c>
       <c r="C4" t="n">
-        <v>28.91</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96395</v>
+        <v>0.99807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99263</v>
+        <v>0.99807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Motor MTU Diesel babor</t>
+          <t>AcopleFB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4274.6</v>
+        <v>155654.14</v>
       </c>
       <c r="C5" t="n">
-        <v>38.24</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9674</v>
+        <v>0.99807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.99135</v>
+        <v>0.99807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caja de reductora ZF 2</t>
+          <t>Reductor</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4310.16</v>
+        <v>295000</v>
       </c>
       <c r="C6" t="n">
-        <v>32.98</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.96767</v>
+        <v>0.99898</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99251</v>
+        <v>0.99898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Water Jets Hamilton 2</t>
+          <t>Acoplamiento</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3862.94</v>
+        <v>45558</v>
       </c>
       <c r="C7" t="n">
-        <v>28.91</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96395</v>
+        <v>0.99342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99263</v>
+        <v>0.99342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Freno</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9997</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EjeIntermedio</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>653595</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.99954</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.99954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JuntaDeMamparo</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>171233</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.99825</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rodamiento1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>116550</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.99743</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.99743</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rodamiento2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>116550</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.99743</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.99743</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Acoplamiento2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>45558</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.99342</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.99342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JuntaDeMamparo2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>171233</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.99825</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sellos tubo de popa </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>171233</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.99825</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cojinete del tubo de popa delantero</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>233100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.99871</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.99871</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eje del tubo de popa STB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>653595</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.99954</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.99954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AFT Cojinete de tubo de popa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>233100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.99871</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.99871</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>acoplamiento de manguito 4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>45558</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.99342</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.99342</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Eje de cola STB</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>653595</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.99954</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.99954</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>conjunto cojinete soporte AFT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>230000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9987</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hélice de paso controlable</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>71480</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Motor3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12551</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.99901</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AcopleFA2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>155654.14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.99807</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.99807</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Motor4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12551</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.99901</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AcopleFB2</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>155654.14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.99807</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.99807</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ReductorB2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>295000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.99898</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.99898</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AcoplamientoB2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>45558</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.99342</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.99342</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FrenoB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9997</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Juntademamparob</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>171233</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.99825</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sello tubo de popa b</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>171233</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.99825</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cojinete del tubo de popa B</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>233100</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.99871</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.99871</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SHAFT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>653595</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.99954</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.99954</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AFT STERNTUBE BEARING ASSY</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>233100</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.99871</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.99871</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SLEEVE COUPLING 5</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>45558</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.99342</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.99342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PORT SHAFT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>653595</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.99954</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.99954</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BRACKET BEARING ASSY 2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>230000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9987</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTROLLABLE PITCH PROPELLER </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>71480</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9958</v>
       </c>
     </row>
   </sheetData>
